--- a/example/worksheet.xlsx
+++ b/example/worksheet.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE665C05-5E67-4BE3-B01B-47938EA9B501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B6DB7-5E4B-47B4-A61E-ED1FE7C46482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +42,18 @@
   </si>
   <si>
     <t>Nitcham</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>kek</t>
   </si>
 </sst>
 </file>
@@ -360,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -424,4 +437,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB2AA6-93C0-4306-B401-69553F0C731C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/worksheet.xlsx
+++ b/example/worksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B6DB7-5E4B-47B4-A61E-ED1FE7C46482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127ACDD2-7F52-4AB0-857D-FA03C86BA661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
